--- a/result/gr50_05_simulated/details.xlsx
+++ b/result/gr50_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4371142387390137</v>
+        <v>0.4687700271606445</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>735.2819657472173</v>
+        <v>723.12269821462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02924818855988604</v>
+        <v>0.02895402551606931</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02464829080293212</v>
+        <v>0.02420724131049888</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02139492187422031</v>
+        <v>0.02254469845991823</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0191992945871664</v>
+        <v>0.02021272996409079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01807468130191402</v>
+        <v>0.0178570868321924</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01730841172419745</v>
+        <v>0.01692457362821394</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0161355551341148</v>
+        <v>0.01634042763285096</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01558437709802376</v>
+        <v>0.01558544942255055</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01533321945744166</v>
+        <v>0.0152741554346504</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01489262761617035</v>
+        <v>0.01489683376842072</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01489262761617035</v>
+        <v>0.01473251643351146</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01476928097606663</v>
+        <v>0.01450267481986731</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0147042468078437</v>
+        <v>0.01442613643453485</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01455760570012915</v>
+        <v>0.01431090448550254</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0145003306188605</v>
+        <v>0.01426087019712422</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01448441825534253</v>
+        <v>0.01418276438016629</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01441400538583463</v>
+        <v>0.01415993859647826</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01438240198048122</v>
+        <v>0.01412060744088734</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01435840012386494</v>
+        <v>0.01410938405110328</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01433298178844478</v>
+        <v>0.01409595902952475</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631927490234375</v>
+        <v>0.41029953956604</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>747.3169171502905</v>
+        <v>734.7025645082249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02792667499700901</v>
+        <v>0.02830746954856514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02434120310971953</v>
+        <v>0.0241847173594625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02165526313783477</v>
+        <v>0.02132354969162452</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01965940178163884</v>
+        <v>0.01891710893446091</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01814271866588951</v>
+        <v>0.01775987892090011</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01678381211259175</v>
+        <v>0.01710411123993955</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01649502914086517</v>
+        <v>0.01648082843693811</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01584117764055014</v>
+        <v>0.01614211835279102</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01551400369286478</v>
+        <v>0.01551180436105457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01534490127461188</v>
+        <v>0.01545202371889318</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01523255448822139</v>
+        <v>0.01498945156810305</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01503436604538333</v>
+        <v>0.01483560466547924</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01492070762678445</v>
+        <v>0.01473618557322881</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01487543149732436</v>
+        <v>0.01458641858780619</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01478478990623661</v>
+        <v>0.01449243630502437</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01468708593637815</v>
+        <v>0.01441644410916628</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01464415239651626</v>
+        <v>0.014399366135601</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01462081662654674</v>
+        <v>0.01436891643831896</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01458554682853615</v>
+        <v>0.01432168741731432</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01456758123099981</v>
+        <v>0.01432168741731432</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5099148750305176</v>
+        <v>0.3593680858612061</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.2326972818664</v>
+        <v>728.1761857537495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0276418002783498</v>
+        <v>0.02792232367933633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02341028993134631</v>
+        <v>0.02412197968177879</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02122106804437256</v>
+        <v>0.02190576185587806</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01931093857195149</v>
+        <v>0.0199845257569125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01820259708578309</v>
+        <v>0.01890970805787141</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01753066918962987</v>
+        <v>0.01734734060867298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01685679106500057</v>
+        <v>0.01668550292902765</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01645478752306049</v>
+        <v>0.01628836590767601</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01567234870287136</v>
+        <v>0.01572714546728058</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01550498559043262</v>
+        <v>0.01518862304194023</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01531951284423109</v>
+        <v>0.01485212261573434</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01513806876683257</v>
+        <v>0.01469996860253451</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01493907160090541</v>
+        <v>0.01461310907172879</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01486183290822517</v>
+        <v>0.01448740473195386</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01474460388984075</v>
+        <v>0.01441322318888309</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0146869199883483</v>
+        <v>0.01433306866601924</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01462552935560182</v>
+        <v>0.0142636602691798</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01457563364438069</v>
+        <v>0.0142253718735334</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01454740058764916</v>
+        <v>0.01420575579999149</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01452695316338921</v>
+        <v>0.01419446755855262</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3965628147125244</v>
+        <v>0.3749837875366211</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>730.1412420106099</v>
+        <v>741.9892094092465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02789500884969925</v>
+        <v>0.02856645159225074</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02465884397870067</v>
+        <v>0.02375441974663346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02267600306156255</v>
+        <v>0.02159800308042014</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02033956394536562</v>
+        <v>0.01962318447787751</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01896250037925278</v>
+        <v>0.01854096582538122</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01774900752503643</v>
+        <v>0.01755848685089207</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01703659426917968</v>
+        <v>0.01651517518550831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01620106812200806</v>
+        <v>0.01630370439549542</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01565125190211981</v>
+        <v>0.01585014624891508</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0153435874642168</v>
+        <v>0.01542934049596434</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01502954691054368</v>
+        <v>0.01514152384943673</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01481125456991128</v>
+        <v>0.01489030518777658</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01471221662564109</v>
+        <v>0.01479669607490839</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01457673653109863</v>
+        <v>0.01472516596879866</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01444638766124636</v>
+        <v>0.01463181419086085</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01434458846777328</v>
+        <v>0.01458606510925597</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01427447422274054</v>
+        <v>0.01452891759038102</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01426295121049165</v>
+        <v>0.01450106574075306</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01424923429091903</v>
+        <v>0.01448298807965358</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01423277274874483</v>
+        <v>0.01446372727893268</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.375007152557373</v>
+        <v>0.375016450881958</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>743.2042294107796</v>
+        <v>730.4205841133407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02837332095382143</v>
+        <v>0.02820470132401782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02408119006668661</v>
+        <v>0.02385439514809048</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02169885829125253</v>
+        <v>0.02120874465893905</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01964694948800823</v>
+        <v>0.01883387010721196</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01807797151286373</v>
+        <v>0.01828127489755379</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01754236912851609</v>
+        <v>0.01688192084886573</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01662463264461621</v>
+        <v>0.01623738746065336</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01612163429612646</v>
+        <v>0.0157297890085198</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01561110724283914</v>
+        <v>0.01537786681772963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0153509054714548</v>
+        <v>0.01510936356747029</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01509158184768778</v>
+        <v>0.01492175946943699</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01493243630024011</v>
+        <v>0.01469065447790917</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01486747437269195</v>
+        <v>0.01455735128326695</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01476627566306198</v>
+        <v>0.01451743438242823</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01468804241688613</v>
+        <v>0.01442915495829608</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01461842071406204</v>
+        <v>0.01434659947891437</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0145594329477983</v>
+        <v>0.01431591871172111</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01452329154666224</v>
+        <v>0.01428221362550966</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01449788457404871</v>
+        <v>0.01425574607857233</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01448741187935242</v>
+        <v>0.01423821801390527</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201159477233887</v>
+        <v>0.3749837875366211</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>738.9041906770599</v>
+        <v>717.3933043366033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02839290464708148</v>
+        <v>0.02895424877642565</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0245551754091845</v>
+        <v>0.0243450404970844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02132080377180721</v>
+        <v>0.0208812413620671</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01926488202381251</v>
+        <v>0.01827512795862534</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01747936313398707</v>
+        <v>0.01719364834559635</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01694183282631153</v>
+        <v>0.01656543315311258</v>
       </c>
       <c r="L7" t="n">
-        <v>0.016554965307009</v>
+        <v>0.01551821134968519</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01608582056350277</v>
+        <v>0.01495214729861681</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01580923968652908</v>
+        <v>0.01486765969788954</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01544803404433185</v>
+        <v>0.01453847172487082</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01504406811196319</v>
+        <v>0.01449131851335604</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01493386757782008</v>
+        <v>0.01429024316660234</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01477381442053289</v>
+        <v>0.01424574550991967</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01468132707753396</v>
+        <v>0.01418005601955564</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01462577681360355</v>
+        <v>0.01413364906748618</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01455490204645624</v>
+        <v>0.01409173395000661</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01446908744409081</v>
+        <v>0.01404148561443623</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01444894571396334</v>
+        <v>0.01401804516691865</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01440359046154113</v>
+        <v>0.01398911320186583</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01440359046154113</v>
+        <v>0.01398427493833534</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4021914005279541</v>
+        <v>0.3593878746032715</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>731.2326183005043</v>
+        <v>736.8859993974511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02920540405626181</v>
+        <v>0.02844094105898348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02485919412198898</v>
+        <v>0.0238872106548345</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02163563571120516</v>
+        <v>0.02117303240905511</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01988211961429284</v>
+        <v>0.01976317855140996</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01884585143731018</v>
+        <v>0.0174184318678946</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01766333466830938</v>
+        <v>0.01704819842531934</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01705998246213047</v>
+        <v>0.01607281020953092</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01590229736065652</v>
+        <v>0.01554818627074494</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01543329789086975</v>
+        <v>0.01525393762227005</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01526420637956355</v>
+        <v>0.0150493070154416</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01491016633159698</v>
+        <v>0.01494346579501621</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01477340286283995</v>
+        <v>0.0148249433600932</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01470456129478449</v>
+        <v>0.01470935863378267</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01453628414187827</v>
+        <v>0.01463988200628815</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01437080339439851</v>
+        <v>0.01450019721960969</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01437080339439851</v>
+        <v>0.01444775592107629</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01433793369400068</v>
+        <v>0.01441908575301075</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01430118268009757</v>
+        <v>0.01439117295173016</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01427412137113104</v>
+        <v>0.0143797357749662</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0142540471403607</v>
+        <v>0.01436424950092497</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3862214088439941</v>
+        <v>0.374950647354126</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>749.6233352843919</v>
+        <v>743.8537593683468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02902943280801534</v>
+        <v>0.02898418242965929</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02532764506633299</v>
+        <v>0.02480256062002152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02218616219328375</v>
+        <v>0.02175066973550077</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02042267885119985</v>
+        <v>0.01972671083275803</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01839367000957072</v>
+        <v>0.01867787567974667</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01834371551431405</v>
+        <v>0.01776363103671519</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01708829926959645</v>
+        <v>0.01716687673894971</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01679541784420677</v>
+        <v>0.01668535684981325</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01617381204567517</v>
+        <v>0.01594994701705937</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01569702667629503</v>
+        <v>0.01573356148984531</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01532085034780027</v>
+        <v>0.01537766266455609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01513230061639353</v>
+        <v>0.01514868651983574</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0150741072675947</v>
+        <v>0.01479562340121629</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01494881653132924</v>
+        <v>0.01476935435573229</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01484048022699241</v>
+        <v>0.01469065510022463</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01480582256951207</v>
+        <v>0.01459509747326514</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01469626010182764</v>
+        <v>0.01456438878478717</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01466618091188656</v>
+        <v>0.01454886160017186</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01463973698698408</v>
+        <v>0.01451366283134936</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01461254064881855</v>
+        <v>0.01450007328203405</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3819868564605713</v>
+        <v>0.3750007152557373</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>736.0520154956084</v>
+        <v>740.1754453887843</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0292698390391737</v>
+        <v>0.0275811010245802</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02560227251845264</v>
+        <v>0.02336871173321707</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02202713981768618</v>
+        <v>0.02095798671584988</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02003111408415489</v>
+        <v>0.01920414691266778</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01923496640074801</v>
+        <v>0.01798324948101347</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01819004844628346</v>
+        <v>0.01732452380147715</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01710125533949455</v>
+        <v>0.0167004243629385</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01630187017322545</v>
+        <v>0.01621349358808219</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01589700721968742</v>
+        <v>0.01583294966137693</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01541895455544118</v>
+        <v>0.01546990651578409</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01521540533099682</v>
+        <v>0.01510601107858516</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01495427190767548</v>
+        <v>0.01506826300003977</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01482797434803191</v>
+        <v>0.0149175429955575</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01463209005105727</v>
+        <v>0.01476520690423834</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01456099654264334</v>
+        <v>0.01469252033085005</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01449160500512772</v>
+        <v>0.01457010111342898</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01443569162151074</v>
+        <v>0.0145264320425055</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01440196341006418</v>
+        <v>0.01446210386863472</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01436612961084616</v>
+        <v>0.01442837125514199</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01434799250478769</v>
+        <v>0.01442837125514199</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4062480926513672</v>
+        <v>0.3593332767486572</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>745.7217362975352</v>
+        <v>732.147887553183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02838776211093784</v>
+        <v>0.02939179100214321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02450289623687493</v>
+        <v>0.02453191134325624</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02128485483713342</v>
+        <v>0.02111672236015432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01915831680941418</v>
+        <v>0.01931652951095221</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0184164954534893</v>
+        <v>0.01782319697706157</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01754038538307412</v>
+        <v>0.01672643206869538</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01665189247754806</v>
+        <v>0.01622414793962052</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01648320772164461</v>
+        <v>0.01531166190089913</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01617406129858743</v>
+        <v>0.01531166190089913</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01566107686628358</v>
+        <v>0.01503654114710405</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01544977669110974</v>
+        <v>0.01484640139175698</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01525036661179205</v>
+        <v>0.01470033301702791</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0150654769443975</v>
+        <v>0.01461966576290391</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01488108211942648</v>
+        <v>0.01450653360183916</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01477488383050977</v>
+        <v>0.01442785006591864</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01467500176727676</v>
+        <v>0.01440446068207449</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01463408156087545</v>
+        <v>0.01433453826006739</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01457641469343776</v>
+        <v>0.0143147745045003</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01455897474269947</v>
+        <v>0.01428174495130035</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01453648608767125</v>
+        <v>0.01427188864626087</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_05_simulated/details.xlsx
+++ b/result/gr50_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4687700271606445</v>
+        <v>0.712993860244751</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>723.12269821462</v>
+        <v>236.9274748885455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02895402551606931</v>
+        <v>0.007686309101501964</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02420724131049888</v>
+        <v>0.006533694960710819</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02254469845991823</v>
+        <v>0.006094620780313737</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02021272996409079</v>
+        <v>0.005842421531522889</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0178570868321924</v>
+        <v>0.005703255215933124</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01692457362821394</v>
+        <v>0.005703255215933124</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01634042763285096</v>
+        <v>0.005542350352134235</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01558544942255055</v>
+        <v>0.005248600080509847</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0152741554346504</v>
+        <v>0.005248600080509847</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01489683376842072</v>
+        <v>0.005173508915236756</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01473251643351146</v>
+        <v>0.004956574545403267</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01450267481986731</v>
+        <v>0.004913951033372017</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01442613643453485</v>
+        <v>0.004913951033372017</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01431090448550254</v>
+        <v>0.004810199110640724</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01426087019712422</v>
+        <v>0.004786028739330623</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01418276438016629</v>
+        <v>0.004722752451528996</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01415993859647826</v>
+        <v>0.004667559021229846</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01412060744088734</v>
+        <v>0.004667559021229846</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01410938405110328</v>
+        <v>0.004641101421244707</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01409595902952475</v>
+        <v>0.004618469296073011</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.41029953956604</v>
+        <v>0.817997932434082</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>734.7025645082249</v>
+        <v>238.4336981396937</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02830746954856514</v>
+        <v>0.007837855268614205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0241847173594625</v>
+        <v>0.006520280231572867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02132354969162452</v>
+        <v>0.006271053087771808</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01891710893446091</v>
+        <v>0.006221731626953616</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01775987892090011</v>
+        <v>0.006221731626953616</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01710411123993955</v>
+        <v>0.006016489405433195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01648082843693811</v>
+        <v>0.005632985933106465</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01614211835279102</v>
+        <v>0.005632985933106465</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01551180436105457</v>
+        <v>0.005350353788437475</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01545202371889318</v>
+        <v>0.005045898160385714</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01498945156810305</v>
+        <v>0.004960643367975983</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01483560466547924</v>
+        <v>0.004960643367975983</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01473618557322881</v>
+        <v>0.004905566266833805</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01458641858780619</v>
+        <v>0.004869671144612178</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01449243630502437</v>
+        <v>0.004869671144612178</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01441644410916628</v>
+        <v>0.004766953827636977</v>
       </c>
       <c r="V3" t="n">
-        <v>0.014399366135601</v>
+        <v>0.004732969213924328</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01436891643831896</v>
+        <v>0.004706590131929728</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01432168741731432</v>
+        <v>0.004677876315039696</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01432168741731432</v>
+        <v>0.004647830373093443</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3593680858612061</v>
+        <v>0.6820440292358398</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>728.1761857537495</v>
+        <v>234.2631290752615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02792232367933633</v>
+        <v>0.007456591039384232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02412197968177879</v>
+        <v>0.006004470023957867</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02190576185587806</v>
+        <v>0.005496283750764196</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0199845257569125</v>
+        <v>0.005465568915706755</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01890970805787141</v>
+        <v>0.005465568915706755</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01734734060867298</v>
+        <v>0.005360917787056003</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01668550292902765</v>
+        <v>0.005343444677131004</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01628836590767601</v>
+        <v>0.005343444677131004</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01572714546728058</v>
+        <v>0.005222897906695431</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01518862304194023</v>
+        <v>0.005159688344847345</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01485212261573434</v>
+        <v>0.004865230170873073</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01469996860253451</v>
+        <v>0.004865230170873073</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01461310907172879</v>
+        <v>0.004865230170873073</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01448740473195386</v>
+        <v>0.004865230170873073</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01441322318888309</v>
+        <v>0.00485506442450627</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01433306866601924</v>
+        <v>0.004757570827791565</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0142636602691798</v>
+        <v>0.004666630887258591</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0142253718735334</v>
+        <v>0.00457697635107241</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01420575579999149</v>
+        <v>0.00457697635107241</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01419446755855262</v>
+        <v>0.00456653273051192</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3749837875366211</v>
+        <v>0.8549585342407227</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>741.9892094092465</v>
+        <v>222.8647225860896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02856645159225074</v>
+        <v>0.007730477571098601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02375441974663346</v>
+        <v>0.006395203333345155</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02159800308042014</v>
+        <v>0.005985591471392316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01962318447787751</v>
+        <v>0.005656059168542877</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01854096582538122</v>
+        <v>0.005451352868619392</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01755848685089207</v>
+        <v>0.005451352868619392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01651517518550831</v>
+        <v>0.005298089167732846</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01630370439549542</v>
+        <v>0.005095977851119578</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01585014624891508</v>
+        <v>0.00497801417960015</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01542934049596434</v>
+        <v>0.00497801417960015</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01514152384943673</v>
+        <v>0.00497801417960015</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01489030518777658</v>
+        <v>0.004795695806911205</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01479669607490839</v>
+        <v>0.004663805833663192</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01472516596879866</v>
+        <v>0.00444179977383707</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01463181419086085</v>
+        <v>0.00444179977383707</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01458606510925597</v>
+        <v>0.00444179977383707</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01452891759038102</v>
+        <v>0.00444179977383707</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01450106574075306</v>
+        <v>0.004436788898094684</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01448298807965358</v>
+        <v>0.004399496394142412</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01446372727893268</v>
+        <v>0.004344341570878938</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.375016450881958</v>
+        <v>1.011003017425537</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>730.4205841133407</v>
+        <v>236.690439047723</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02820470132401782</v>
+        <v>0.008166719753212833</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02385439514809048</v>
+        <v>0.006519477631430377</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02120874465893905</v>
+        <v>0.005872449866674677</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01883387010721196</v>
+        <v>0.005872449866674677</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01828127489755379</v>
+        <v>0.005872449866674677</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01688192084886573</v>
+        <v>0.005382240935539396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01623738746065336</v>
+        <v>0.005382240935539396</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0157297890085198</v>
+        <v>0.005382240935539396</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01537786681772963</v>
+        <v>0.005146682192068277</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01510936356747029</v>
+        <v>0.005146682192068277</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01492175946943699</v>
+        <v>0.005071762901822975</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01469065447790917</v>
+        <v>0.004930238474648538</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01455735128326695</v>
+        <v>0.004930238474648538</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01451743438242823</v>
+        <v>0.004651014200129541</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01442915495829608</v>
+        <v>0.004651014200129541</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01434659947891437</v>
+        <v>0.004651014200129541</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01431591871172111</v>
+        <v>0.004645401434464309</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01428221362550966</v>
+        <v>0.004633104895405529</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01425574607857233</v>
+        <v>0.004627768006951929</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01423821801390527</v>
+        <v>0.004613848714380564</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3749837875366211</v>
+        <v>0.8429965972900391</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>717.3933043366033</v>
+        <v>239.2141299962277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02895424877642565</v>
+        <v>0.007868996010751408</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0243450404970844</v>
+        <v>0.006431766394324435</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0208812413620671</v>
+        <v>0.005792221777710348</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01827512795862534</v>
+        <v>0.005792221777710348</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01719364834559635</v>
+        <v>0.00563403316077411</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01656543315311258</v>
+        <v>0.00563403316077411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01551821134968519</v>
+        <v>0.00556972764686344</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01495214729861681</v>
+        <v>0.005486134467479614</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01486765969788954</v>
+        <v>0.005304254764232644</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01453847172487082</v>
+        <v>0.005304254764232644</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01449131851335604</v>
+        <v>0.00521354498223236</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01429024316660234</v>
+        <v>0.005027122390913159</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01424574550991967</v>
+        <v>0.004856852543837597</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01418005601955564</v>
+        <v>0.004856852543837597</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01413364906748618</v>
+        <v>0.004856852543837597</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01409173395000661</v>
+        <v>0.004797871257888564</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01404148561443623</v>
+        <v>0.004740458992612961</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01401804516691865</v>
+        <v>0.004697940020248485</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01398911320186583</v>
+        <v>0.004682197839501753</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01398427493833534</v>
+        <v>0.00466304346971204</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3593878746032715</v>
+        <v>0.760040283203125</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>736.8859993974511</v>
+        <v>233.8686316967996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02844094105898348</v>
+        <v>0.007514702547482954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0238872106548345</v>
+        <v>0.006287850202304441</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02117303240905511</v>
+        <v>0.005778960528254524</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01976317855140996</v>
+        <v>0.005748341007915723</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0174184318678946</v>
+        <v>0.005718128859134806</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01704819842531934</v>
+        <v>0.005718128859134806</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01607281020953092</v>
+        <v>0.005694590436215702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01554818627074494</v>
+        <v>0.005530432345126436</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01525393762227005</v>
+        <v>0.00517468703067612</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0150493070154416</v>
+        <v>0.005096379075953043</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01494346579501621</v>
+        <v>0.005027437251443174</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0148249433600932</v>
+        <v>0.004982737987644092</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01470935863378267</v>
+        <v>0.004844333999460456</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01463988200628815</v>
+        <v>0.00478569835377601</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01450019721960969</v>
+        <v>0.004774407115374098</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01444775592107629</v>
+        <v>0.004663452789606281</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01441908575301075</v>
+        <v>0.004663452789606281</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01439117295173016</v>
+        <v>0.004624395055431951</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0143797357749662</v>
+        <v>0.004606195217820604</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01436424950092497</v>
+        <v>0.004558842723134495</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.374950647354126</v>
+        <v>0.8079986572265625</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>743.8537593683468</v>
+        <v>246.6821658874032</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02898418242965929</v>
+        <v>0.008202759255531005</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02480256062002152</v>
+        <v>0.006473146220843957</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02175066973550077</v>
+        <v>0.006031423245740067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01972671083275803</v>
+        <v>0.005899763504592122</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01867787567974667</v>
+        <v>0.005771505267934555</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01776363103671519</v>
+        <v>0.00539415244125093</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01716687673894971</v>
+        <v>0.00539415244125093</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01668535684981325</v>
+        <v>0.00539415244125093</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01594994701705937</v>
+        <v>0.00539415244125093</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01573356148984531</v>
+        <v>0.00539415244125093</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01537766266455609</v>
+        <v>0.005364492553468776</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01514868651983574</v>
+        <v>0.005329619605195014</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01479562340121629</v>
+        <v>0.005195719072856938</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01476935435573229</v>
+        <v>0.005009423986870507</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01469065510022463</v>
+        <v>0.004997231847881914</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01459509747326514</v>
+        <v>0.004997231847881914</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01456438878478717</v>
+        <v>0.004860337663604265</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01454886160017186</v>
+        <v>0.004860337663604265</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01451366283134936</v>
+        <v>0.004833934164909617</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01450007328203405</v>
+        <v>0.004808619218078035</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3750007152557373</v>
+        <v>0.8010013103485107</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>740.1754453887843</v>
+        <v>250.2937931478282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0275811010245802</v>
+        <v>0.006773381411383712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02336871173321707</v>
+        <v>0.006382137391800865</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02095798671584988</v>
+        <v>0.006376698607663674</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01920414691266778</v>
+        <v>0.00635710619006945</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01798324948101347</v>
+        <v>0.005747669227463939</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01732452380147715</v>
+        <v>0.005747669227463939</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0167004243629385</v>
+        <v>0.00561224571417935</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01621349358808219</v>
+        <v>0.00561224571417935</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01583294966137693</v>
+        <v>0.005325555254018083</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01546990651578409</v>
+        <v>0.005325555254018083</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01510601107858516</v>
+        <v>0.005297166536433169</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01506826300003977</v>
+        <v>0.005262974217904259</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0149175429955575</v>
+        <v>0.00514217869409893</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01476520690423834</v>
+        <v>0.00508248608118054</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01469252033085005</v>
+        <v>0.004986343885243593</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01457010111342898</v>
+        <v>0.004986343885243593</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0145264320425055</v>
+        <v>0.004967006790082992</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01446210386863472</v>
+        <v>0.004916718966646104</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01442837125514199</v>
+        <v>0.004879021308924525</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01442837125514199</v>
+        <v>0.004879021308924525</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3593332767486572</v>
+        <v>0.811039924621582</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>732.147887553183</v>
+        <v>243.9252197103633</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02939179100214321</v>
+        <v>0.007370076423741731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02453191134325624</v>
+        <v>0.006063030851256914</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02111672236015432</v>
+        <v>0.006063030851256914</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01931652951095221</v>
+        <v>0.005821899190410497</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01782319697706157</v>
+        <v>0.005821899190410497</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01672643206869538</v>
+        <v>0.005348601249616374</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01622414793962052</v>
+        <v>0.005348601249616374</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01531166190089913</v>
+        <v>0.005348601249616374</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01531166190089913</v>
+        <v>0.005262465484090115</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01503654114710405</v>
+        <v>0.005230424521522148</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01484640139175698</v>
+        <v>0.005230424521522148</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01470033301702791</v>
+        <v>0.005060253196097795</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01461966576290391</v>
+        <v>0.005040117774048682</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01450653360183916</v>
+        <v>0.004880733215122886</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01442785006591864</v>
+        <v>0.004880733215122886</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01440446068207449</v>
+        <v>0.004880733215122886</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01433453826006739</v>
+        <v>0.004859336524651299</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0143147745045003</v>
+        <v>0.004859336524651299</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01428174495130035</v>
+        <v>0.004797941993235856</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01427188864626087</v>
+        <v>0.004754877577200063</v>
       </c>
     </row>
   </sheetData>
